--- a/reports/figures/corr.xlsx
+++ b/reports/figures/corr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asadsabir/Documents/GitHub/World Bank Gini Index/reports/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6C378F4-275B-FE4C-A58A-62DB8926C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA7F22AD-043E-C943-A88C-AA6EE3DDFD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="corr" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +432,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -593,10 +599,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1236,10 +1243,13 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1684,7 +1694,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -1862,7 +1872,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -1951,7 +1961,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
@@ -2040,7 +2050,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10">
@@ -2930,7 +2940,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3019,7 +3029,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21">
